--- a/LR1/1.21.xlsx
+++ b/LR1/1.21.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279D99A-1295-447C-AEA4-916D4262783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A9D2CE-32AC-433A-A08B-992FBB38F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>a</t>
   </si>
@@ -50,63 +42,59 @@
     <t>q1</t>
   </si>
   <si>
+    <t>,R,q2</t>
+  </si>
+  <si>
+    <t>,R,q3</t>
+  </si>
+  <si>
     <t>q2</t>
   </si>
   <si>
+    <t>,R,q6</t>
+  </si>
+  <si>
+    <t>,R,</t>
+  </si>
+  <si>
+    <t>,L,q4</t>
+  </si>
+  <si>
     <t>q3</t>
   </si>
   <si>
     <t>q4</t>
   </si>
   <si>
+    <t>_,L,</t>
+  </si>
+  <si>
+    <t>,,!</t>
+  </si>
+  <si>
     <t>q5</t>
   </si>
   <si>
-    <t>,L,</t>
-  </si>
-  <si>
-    <t>,R,q4</t>
-  </si>
-  <si>
-    <t>a,R, q5</t>
-  </si>
-  <si>
-    <t>,R,q2</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>,R,q3</t>
-  </si>
-  <si>
-    <t>a,R,q5</t>
-  </si>
-  <si>
-    <t>,R,q5</t>
-  </si>
-  <si>
-    <t>,L,!</t>
+    <t>a,,!</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>,L,q5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,23 +114,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{882E7B8F-2E69-4B1A-84F1-139737624AFC}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,7 +153,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -183,7 +165,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -200,7 +182,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -230,12 +212,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -265,6 +264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,113 +433,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
